--- a/data/05_input/zm.cg20a.xlsx
+++ b/data/05_input/zm.cg20a.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/5789CEB6-D07C-46D9-A36A-5A1D41ADF0EF/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/Zmays_B73/05_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/CFFBCE13-D2B1-4A1F-A05D-68710E3A8CE4/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/05_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71304A8F-D0F4-BF4D-8C58-35966AB8E4AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1AB4A2-8A23-5B4C-BB22-47D2BF1B3EEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24100" yWindow="14240" windowWidth="17780" windowHeight="14280" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
+    <workbookView xWindow="10460" yWindow="4680" windowWidth="21400" windowHeight="13120" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -322,208 +322,208 @@
     <t>SE</t>
   </si>
   <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/B73_root_SRR2078287.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/B73_root_SRR2078288.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/B73_shoot_SRR2078285.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/B73_shoot_SRR2078286.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/Mo17_root_SRR2078291.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/Mo17_root_SRR2078292.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/Mo17_shoot_SRR2078289.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/Mo17_shoot_SRR2078290.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/B73_root_r1.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/B73_root_r2.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/B73_root_r3.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/B73_shoot_r1.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/B73_shoot_r2.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/B73_shoot_r3.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/B73_shoot_r4.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/Mo17_root_r1.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/Mo17_root_r2.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/Mo17_root_r3.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/Mo17_shoot_r1.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/Mo17_shoot_r2.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/Mo17_shoot_r3.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/B73Mo17_root_r1.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/B73Mo17_root_r2.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/B73Mo17_root_r3.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/B73Mo17_root_r4.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/B73Mo17_shoot_r1.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/B73Mo17_shoot_r2.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/B73Mo17_shoot_r3.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/Mo17_Sctrl_r1.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/Mo17_Sctrl_r2.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/Mo17_Sctrl_r3.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/Mo17_Rcold_r1.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/Mo17_Rcold_r2.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/Mo17_Rcold_r3.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/B73_Sctrl_r1.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/B73_Sctrl_r2.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/B73_Sctrl_r3.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/B73_Rctrl_r1.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/B73_Rctrl_r2.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/B73_Rctrl_r3.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/B73_Rcold_r1.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/B73_Rcold_r2.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/B73_Rcold_r3.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/B73_Scold_r1.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/B73_Scold_r2.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/B73_Scold_r3.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/Mo17_Scold_r1.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/Mo17_Scold_r2.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/Mo17_Scold_r3.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/Mo17_Rctrl_r1.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/Mo17_Rctrl_r2.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/Mo17_Rctrl_r3.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/B73_Sdrought_r1.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/B73_Sdrought_r2.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/Mo17_Sdrought_r1.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/Mo17_Sdrought_r2.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/Mo17_Sdrought_r3.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/Mo17_Sdctrl_r1.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/Mo17_Sdctrl_r2.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/B73_Sdctrl_r1.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/B73_Rdrought_r1.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/B73_shoot_AMG.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/B73_Husk_1.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/B73_Husk_2.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/B73_Husk_3.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/B73_V2_1.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/B73_V2_2.fq.gz</t>
-  </si>
-  <si>
-    <t>/home/springer/zhoux379/projects/barn/Zmays_B73/raw_seqs/cage/B73_V2_3.fq.gz</t>
+    <t>B73_root_SRR2078287.fq.gz</t>
+  </si>
+  <si>
+    <t>B73_root_SRR2078288.fq.gz</t>
+  </si>
+  <si>
+    <t>B73_shoot_SRR2078285.fq.gz</t>
+  </si>
+  <si>
+    <t>B73_shoot_SRR2078286.fq.gz</t>
+  </si>
+  <si>
+    <t>Mo17_root_SRR2078291.fq.gz</t>
+  </si>
+  <si>
+    <t>Mo17_root_SRR2078292.fq.gz</t>
+  </si>
+  <si>
+    <t>Mo17_shoot_SRR2078289.fq.gz</t>
+  </si>
+  <si>
+    <t>Mo17_shoot_SRR2078290.fq.gz</t>
+  </si>
+  <si>
+    <t>B73_root_r1.fq.gz</t>
+  </si>
+  <si>
+    <t>B73_root_r2.fq.gz</t>
+  </si>
+  <si>
+    <t>B73_root_r3.fq.gz</t>
+  </si>
+  <si>
+    <t>B73_shoot_r1.fq.gz</t>
+  </si>
+  <si>
+    <t>B73_shoot_r2.fq.gz</t>
+  </si>
+  <si>
+    <t>B73_shoot_r3.fq.gz</t>
+  </si>
+  <si>
+    <t>B73_shoot_r4.fq.gz</t>
+  </si>
+  <si>
+    <t>Mo17_root_r1.fq.gz</t>
+  </si>
+  <si>
+    <t>Mo17_root_r2.fq.gz</t>
+  </si>
+  <si>
+    <t>Mo17_root_r3.fq.gz</t>
+  </si>
+  <si>
+    <t>Mo17_shoot_r1.fq.gz</t>
+  </si>
+  <si>
+    <t>Mo17_shoot_r2.fq.gz</t>
+  </si>
+  <si>
+    <t>Mo17_shoot_r3.fq.gz</t>
+  </si>
+  <si>
+    <t>B73Mo17_root_r1.fq.gz</t>
+  </si>
+  <si>
+    <t>B73Mo17_root_r2.fq.gz</t>
+  </si>
+  <si>
+    <t>B73Mo17_root_r3.fq.gz</t>
+  </si>
+  <si>
+    <t>B73Mo17_root_r4.fq.gz</t>
+  </si>
+  <si>
+    <t>B73Mo17_shoot_r1.fq.gz</t>
+  </si>
+  <si>
+    <t>B73Mo17_shoot_r2.fq.gz</t>
+  </si>
+  <si>
+    <t>B73Mo17_shoot_r3.fq.gz</t>
+  </si>
+  <si>
+    <t>Mo17_Sctrl_r1.fq.gz</t>
+  </si>
+  <si>
+    <t>Mo17_Sctrl_r2.fq.gz</t>
+  </si>
+  <si>
+    <t>Mo17_Sctrl_r3.fq.gz</t>
+  </si>
+  <si>
+    <t>Mo17_Rcold_r1.fq.gz</t>
+  </si>
+  <si>
+    <t>Mo17_Rcold_r2.fq.gz</t>
+  </si>
+  <si>
+    <t>Mo17_Rcold_r3.fq.gz</t>
+  </si>
+  <si>
+    <t>B73_Sctrl_r1.fq.gz</t>
+  </si>
+  <si>
+    <t>B73_Sctrl_r2.fq.gz</t>
+  </si>
+  <si>
+    <t>B73_Sctrl_r3.fq.gz</t>
+  </si>
+  <si>
+    <t>B73_Rctrl_r1.fq.gz</t>
+  </si>
+  <si>
+    <t>B73_Rctrl_r2.fq.gz</t>
+  </si>
+  <si>
+    <t>B73_Rctrl_r3.fq.gz</t>
+  </si>
+  <si>
+    <t>B73_Rcold_r1.fq.gz</t>
+  </si>
+  <si>
+    <t>B73_Rcold_r2.fq.gz</t>
+  </si>
+  <si>
+    <t>B73_Rcold_r3.fq.gz</t>
+  </si>
+  <si>
+    <t>B73_Scold_r1.fq.gz</t>
+  </si>
+  <si>
+    <t>B73_Scold_r2.fq.gz</t>
+  </si>
+  <si>
+    <t>B73_Scold_r3.fq.gz</t>
+  </si>
+  <si>
+    <t>Mo17_Scold_r1.fq.gz</t>
+  </si>
+  <si>
+    <t>Mo17_Scold_r2.fq.gz</t>
+  </si>
+  <si>
+    <t>Mo17_Scold_r3.fq.gz</t>
+  </si>
+  <si>
+    <t>Mo17_Rctrl_r1.fq.gz</t>
+  </si>
+  <si>
+    <t>Mo17_Rctrl_r2.fq.gz</t>
+  </si>
+  <si>
+    <t>Mo17_Rctrl_r3.fq.gz</t>
+  </si>
+  <si>
+    <t>B73_Sdrought_r1.fq.gz</t>
+  </si>
+  <si>
+    <t>B73_Sdrought_r2.fq.gz</t>
+  </si>
+  <si>
+    <t>Mo17_Sdrought_r1.fq.gz</t>
+  </si>
+  <si>
+    <t>Mo17_Sdrought_r2.fq.gz</t>
+  </si>
+  <si>
+    <t>Mo17_Sdrought_r3.fq.gz</t>
+  </si>
+  <si>
+    <t>Mo17_Sdctrl_r1.fq.gz</t>
+  </si>
+  <si>
+    <t>Mo17_Sdctrl_r2.fq.gz</t>
+  </si>
+  <si>
+    <t>B73_Sdctrl_r1.fq.gz</t>
+  </si>
+  <si>
+    <t>B73_Rdrought_r1.fq.gz</t>
+  </si>
+  <si>
+    <t>B73_shoot_AMG.fq.gz</t>
+  </si>
+  <si>
+    <t>B73_Husk_1.fq.gz</t>
+  </si>
+  <si>
+    <t>B73_Husk_2.fq.gz</t>
+  </si>
+  <si>
+    <t>B73_Husk_3.fq.gz</t>
+  </si>
+  <si>
+    <t>B73_V2_1.fq.gz</t>
+  </si>
+  <si>
+    <t>B73_V2_2.fq.gz</t>
+  </si>
+  <si>
+    <t>B73_V2_3.fq.gz</t>
   </si>
 </sst>
 </file>
@@ -884,8 +884,8 @@
   <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
